--- a/Excel2Json/Test/hint_l10n.xlsx
+++ b/Excel2Json/Test/hint_l10n.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>string</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>金币不足</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,13 +77,22 @@
     <t>C</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>cn</t>
   </si>
   <si>
     <t>非BOSS关不可重复挑战</t>
+  </si>
+  <si>
+    <t>id[500]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -550,13 +556,13 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.375" style="2" bestFit="1" customWidth="1"/>
@@ -571,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -596,10 +602,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -621,10 +627,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -646,10 +652,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -674,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -686,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -698,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="12"/>
@@ -710,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="9"/>
@@ -735,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="12"/>
@@ -760,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -785,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -810,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -835,7 +841,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -860,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -885,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -910,7 +916,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -927,7 +933,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -944,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
